--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y397"/>
+  <dimension ref="A1:Y399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
       </c>
       <c r="R396" s="2" t="inlineStr"/>
     </row>
-    <row r="397">
+    <row r="397" ht="15" customHeight="1">
       <c r="A397" t="inlineStr">
         <is>
           <t>A 39693-2023</t>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24904,6 +24904,130 @@
         <v>0</v>
       </c>
       <c r="R397" s="2" t="inlineStr"/>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>A 42513-2023</t>
+        </is>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>TIMRÅ</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" s="2" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>A 42516-2023</t>
+        </is>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>TIMRÅ</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y399"/>
+  <dimension ref="A1:Y400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7531,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9764,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12126,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14503,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14565,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14622,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15254,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15916,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16258,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16315,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17024,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17329,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18985,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19498,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19726,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19783,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19897,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19954,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20011,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20197,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21422,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21779,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23720,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24025,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
       </c>
       <c r="R398" s="2" t="inlineStr"/>
     </row>
-    <row r="399">
+    <row r="399" ht="15" customHeight="1">
       <c r="A399" t="inlineStr">
         <is>
           <t>A 42516-2023</t>
@@ -24977,7 +24977,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25028,6 +25028,68 @@
         <v>0</v>
       </c>
       <c r="R399" s="2" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>A 43128-2023</t>
+        </is>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C400" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>TIMRÅ</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,18 +609,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Aspfjädermossa
 Blackticka
+Rotfingersvamp
 Rynkskinn
 Garnlav
 Granticka
@@ -629,6 +630,7 @@
 Lunglav
 Motaggsvamp
 Rosenticka
+Svart taggsvamp
 Tretåig hackspett
 Ullticka
 Veckticka
@@ -650,27 +652,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 23669-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 23669-2020.xlsx", "A 23669-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 23669-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 23669-2020.png", "A 23669-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 23669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 23669-2020.docx", "A 23669-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 23669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 23669-2020.docx", "A 23669-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 23669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 23669-2020.docx", "A 23669-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 23669-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 23669-2020.docx", "A 23669-2020")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,27 +754,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 4875-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 4875-2019.xlsx", "A 4875-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 4875-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 4875-2019.png", "A 4875-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 4875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 4875-2019.docx", "A 4875-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 4875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 4875-2019.docx", "A 4875-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 4875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 4875-2019.docx", "A 4875-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 4875-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 4875-2019.docx", "A 4875-2019")</f>
         <v/>
       </c>
     </row>
@@ -786,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,27 +856,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 25919-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 25919-2020.xlsx", "A 25919-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 25919-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 25919-2020.png", "A 25919-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 25919-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 25919-2020.docx", "A 25919-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 25919-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 25919-2020.docx", "A 25919-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 25919-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 25919-2020.docx", "A 25919-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 25919-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 25919-2020.docx", "A 25919-2020")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,31 +952,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 65657-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 65657-2018.xlsx", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 65657-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 65657-2018.png", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/knärot/A 65657-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/knärot/A 65657-2018.png", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 65657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 65657-2018.docx", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 65657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 65657-2018.docx", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 65657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 65657-2018.docx", "A 65657-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 65657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 65657-2018.docx", "A 65657-2018")</f>
         <v/>
       </c>
     </row>
@@ -988,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1051,27 +1053,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 37600-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 37600-2022.xlsx", "A 37600-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 37600-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 37600-2022.png", "A 37600-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 37600-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 37600-2022.docx", "A 37600-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 37600-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 37600-2022.docx", "A 37600-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 37600-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 37600-2022.docx", "A 37600-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 37600-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 37600-2022.docx", "A 37600-2022")</f>
         <v/>
       </c>
     </row>
@@ -1085,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,27 +1149,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 56411-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 56411-2022.xlsx", "A 56411-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 56411-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 56411-2022.png", "A 56411-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 56411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 56411-2022.docx", "A 56411-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 56411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 56411-2022.docx", "A 56411-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 56411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 56411-2022.docx", "A 56411-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 56411-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 56411-2022.docx", "A 56411-2022")</f>
         <v/>
       </c>
     </row>
@@ -1181,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,27 +1239,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 729-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 729-2021.xlsx", "A 729-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 729-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 729-2021.png", "A 729-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 729-2021.docx", "A 729-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 729-2021.docx", "A 729-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 729-2021.docx", "A 729-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 729-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 729-2021.docx", "A 729-2021")</f>
         <v/>
       </c>
     </row>
@@ -1271,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,27 +1333,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 4890-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 4890-2019.xlsx", "A 4890-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 4890-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 4890-2019.png", "A 4890-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 4890-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 4890-2019.docx", "A 4890-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 4890-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 4890-2019.docx", "A 4890-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 4890-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 4890-2019.docx", "A 4890-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 4890-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 4890-2019.docx", "A 4890-2019")</f>
         <v/>
       </c>
     </row>
@@ -1365,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,27 +1422,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 19798-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 19798-2020.xlsx", "A 19798-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 19798-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 19798-2020.png", "A 19798-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 19798-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 19798-2020.docx", "A 19798-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 19798-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 19798-2020.docx", "A 19798-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 19798-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 19798-2020.docx", "A 19798-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 19798-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 19798-2020.docx", "A 19798-2020")</f>
         <v/>
       </c>
     </row>
@@ -1454,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,27 +1510,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 19805-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 19805-2020.xlsx", "A 19805-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 19805-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 19805-2020.png", "A 19805-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 19805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 19805-2020.docx", "A 19805-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 19805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 19805-2020.docx", "A 19805-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 19805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 19805-2020.docx", "A 19805-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 19805-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 19805-2020.docx", "A 19805-2020")</f>
         <v/>
       </c>
     </row>
@@ -1542,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,27 +1597,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16853-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16853-2019.xlsx", "A 16853-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16853-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16853-2019.png", "A 16853-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16853-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16853-2019.docx", "A 16853-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16853-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16853-2019.docx", "A 16853-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16853-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16853-2019.docx", "A 16853-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16853-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16853-2019.docx", "A 16853-2019")</f>
         <v/>
       </c>
     </row>
@@ -1629,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,27 +1689,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 47816-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 47816-2022.xlsx", "A 47816-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 47816-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 47816-2022.png", "A 47816-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 47816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 47816-2022.docx", "A 47816-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 47816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 47816-2022.docx", "A 47816-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 47816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 47816-2022.docx", "A 47816-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 47816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 47816-2022.docx", "A 47816-2022")</f>
         <v/>
       </c>
     </row>
@@ -1721,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,27 +1781,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 10766-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 10766-2023.xlsx", "A 10766-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 10766-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 10766-2023.png", "A 10766-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 10766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 10766-2023.docx", "A 10766-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 10766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 10766-2023.docx", "A 10766-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 10766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 10766-2023.docx", "A 10766-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 10766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 10766-2023.docx", "A 10766-2023")</f>
         <v/>
       </c>
     </row>
@@ -1813,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,27 +1873,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 17217-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 17217-2023.xlsx", "A 17217-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 17217-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 17217-2023.png", "A 17217-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 17217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 17217-2023.docx", "A 17217-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 17217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 17217-2023.docx", "A 17217-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 17217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 17217-2023.docx", "A 17217-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 17217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 17217-2023.docx", "A 17217-2023")</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,27 +1965,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 37799-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 37799-2023.xlsx", "A 37799-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 37799-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 37799-2023.png", "A 37799-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 37799-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 37799-2023.docx", "A 37799-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 37799-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 37799-2023.docx", "A 37799-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 37799-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 37799-2023.docx", "A 37799-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 37799-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 37799-2023.docx", "A 37799-2023")</f>
         <v/>
       </c>
     </row>
@@ -1997,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,27 +2051,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 18510-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 18510-2021.xlsx", "A 18510-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 18510-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 18510-2021.png", "A 18510-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 18510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 18510-2021.docx", "A 18510-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 18510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 18510-2021.docx", "A 18510-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 18510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 18510-2021.docx", "A 18510-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 18510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 18510-2021.docx", "A 18510-2021")</f>
         <v/>
       </c>
     </row>
@@ -2083,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,27 +2142,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42284-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42284-2022.xlsx", "A 42284-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42284-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42284-2022.png", "A 42284-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42284-2022.docx", "A 42284-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42284-2022.docx", "A 42284-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42284-2022.docx", "A 42284-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42284-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42284-2022.docx", "A 42284-2022")</f>
         <v/>
       </c>
     </row>
@@ -2174,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2231,27 +2233,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42285-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42285-2022.xlsx", "A 42285-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42285-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42285-2022.png", "A 42285-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42285-2022.docx", "A 42285-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42285-2022.docx", "A 42285-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42285-2022.docx", "A 42285-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42285-2022.docx", "A 42285-2022")</f>
         <v/>
       </c>
     </row>
@@ -2265,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2322,27 +2324,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42283-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42283-2022.xlsx", "A 42283-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42283-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42283-2022.png", "A 42283-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42283-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42283-2022.docx", "A 42283-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42283-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42283-2022.docx", "A 42283-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42283-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42283-2022.docx", "A 42283-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42283-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42283-2022.docx", "A 42283-2022")</f>
         <v/>
       </c>
     </row>
@@ -2356,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2413,27 +2415,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42889-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 42889-2022.xlsx", "A 42889-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42889-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 42889-2022.png", "A 42889-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 42889-2022.docx", "A 42889-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 42889-2022.docx", "A 42889-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 42889-2022.docx", "A 42889-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 42889-2022.docx", "A 42889-2022")</f>
         <v/>
       </c>
     </row>
@@ -2447,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2504,27 +2506,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 49202-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 49202-2022.xlsx", "A 49202-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 49202-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 49202-2022.png", "A 49202-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 49202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 49202-2022.docx", "A 49202-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 49202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 49202-2022.docx", "A 49202-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 49202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 49202-2022.docx", "A 49202-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 49202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 49202-2022.docx", "A 49202-2022")</f>
         <v/>
       </c>
     </row>
@@ -2538,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2590,31 +2592,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 24539-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 24539-2023.xlsx", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 24539-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 24539-2023.png", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/knärot/A 24539-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/knärot/A 24539-2023.png", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 24539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 24539-2023.docx", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 24539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 24539-2023.docx", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 24539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 24539-2023.docx", "A 24539-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 24539-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 24539-2023.docx", "A 24539-2023")</f>
         <v/>
       </c>
     </row>
@@ -2628,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,27 +2687,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 35003-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 35003-2023.xlsx", "A 35003-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 35003-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 35003-2023.png", "A 35003-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 35003-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 35003-2023.docx", "A 35003-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 35003-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 35003-2023.docx", "A 35003-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 35003-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 35003-2023.docx", "A 35003-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 35003-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 35003-2023.docx", "A 35003-2023")</f>
         <v/>
       </c>
     </row>
@@ -2719,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,27 +2772,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16852-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16852-2019.xlsx", "A 16852-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16852-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16852-2019.png", "A 16852-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16852-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16852-2019.docx", "A 16852-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16852-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16852-2019.docx", "A 16852-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16852-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16852-2019.docx", "A 16852-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16852-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16852-2019.docx", "A 16852-2019")</f>
         <v/>
       </c>
     </row>
@@ -2804,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2855,27 +2857,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16858-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 16858-2019.xlsx", "A 16858-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16858-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 16858-2019.png", "A 16858-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 16858-2019.docx", "A 16858-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 16858-2019.docx", "A 16858-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 16858-2019.docx", "A 16858-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16858-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 16858-2019.docx", "A 16858-2019")</f>
         <v/>
       </c>
     </row>
@@ -2889,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2940,27 +2942,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 66710-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 66710-2019.xlsx", "A 66710-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 66710-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 66710-2019.png", "A 66710-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 66710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 66710-2019.docx", "A 66710-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 66710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 66710-2019.docx", "A 66710-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 66710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 66710-2019.docx", "A 66710-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 66710-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 66710-2019.docx", "A 66710-2019")</f>
         <v/>
       </c>
     </row>
@@ -2974,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3025,27 +3027,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 24277-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 24277-2020.xlsx", "A 24277-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 24277-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 24277-2020.png", "A 24277-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 24277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 24277-2020.docx", "A 24277-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 24277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 24277-2020.docx", "A 24277-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 24277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 24277-2020.docx", "A 24277-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 24277-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 24277-2020.docx", "A 24277-2020")</f>
         <v/>
       </c>
     </row>
@@ -3059,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3110,27 +3112,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 27879-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 27879-2020.xlsx", "A 27879-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 27879-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 27879-2020.png", "A 27879-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 27879-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 27879-2020.docx", "A 27879-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 27879-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 27879-2020.docx", "A 27879-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 27879-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 27879-2020.docx", "A 27879-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 27879-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 27879-2020.docx", "A 27879-2020")</f>
         <v/>
       </c>
     </row>
@@ -3144,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3195,27 +3197,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 40407-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 40407-2020.xlsx", "A 40407-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 40407-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 40407-2020.png", "A 40407-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 40407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 40407-2020.docx", "A 40407-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 40407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 40407-2020.docx", "A 40407-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 40407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 40407-2020.docx", "A 40407-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 40407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 40407-2020.docx", "A 40407-2020")</f>
         <v/>
       </c>
     </row>
@@ -3229,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3285,27 +3287,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 69202-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 69202-2020.xlsx", "A 69202-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 69202-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 69202-2020.png", "A 69202-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 69202-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 69202-2020.docx", "A 69202-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 69202-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 69202-2020.docx", "A 69202-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 69202-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 69202-2020.docx", "A 69202-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 69202-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 69202-2020.docx", "A 69202-2020")</f>
         <v/>
       </c>
     </row>
@@ -3319,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3370,27 +3372,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 18969-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 18969-2021.xlsx", "A 18969-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 18969-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 18969-2021.png", "A 18969-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 18969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 18969-2021.docx", "A 18969-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 18969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 18969-2021.docx", "A 18969-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 18969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 18969-2021.docx", "A 18969-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 18969-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 18969-2021.docx", "A 18969-2021")</f>
         <v/>
       </c>
     </row>
@@ -3404,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3455,27 +3457,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 12753-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 12753-2022.xlsx", "A 12753-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 12753-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 12753-2022.png", "A 12753-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 12753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 12753-2022.docx", "A 12753-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 12753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 12753-2022.docx", "A 12753-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 12753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 12753-2022.docx", "A 12753-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 12753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 12753-2022.docx", "A 12753-2022")</f>
         <v/>
       </c>
     </row>
@@ -3489,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3540,27 +3542,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 12785-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 12785-2022.xlsx", "A 12785-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 12785-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 12785-2022.png", "A 12785-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 12785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 12785-2022.docx", "A 12785-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 12785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 12785-2022.docx", "A 12785-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 12785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 12785-2022.docx", "A 12785-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 12785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 12785-2022.docx", "A 12785-2022")</f>
         <v/>
       </c>
     </row>
@@ -3574,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3630,27 +3632,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 23222-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 23222-2022.xlsx", "A 23222-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 23222-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 23222-2022.png", "A 23222-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 23222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 23222-2022.docx", "A 23222-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 23222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 23222-2022.docx", "A 23222-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 23222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 23222-2022.docx", "A 23222-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 23222-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 23222-2022.docx", "A 23222-2022")</f>
         <v/>
       </c>
     </row>
@@ -3664,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3715,27 +3717,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 57242-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 57242-2022.xlsx", "A 57242-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 57242-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 57242-2022.png", "A 57242-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 57242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 57242-2022.docx", "A 57242-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 57242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 57242-2022.docx", "A 57242-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 57242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 57242-2022.docx", "A 57242-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 57242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 57242-2022.docx", "A 57242-2022")</f>
         <v/>
       </c>
     </row>
@@ -3749,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3805,27 +3807,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 10313-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 10313-2023.xlsx", "A 10313-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 10313-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 10313-2023.png", "A 10313-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 10313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 10313-2023.docx", "A 10313-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 10313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 10313-2023.docx", "A 10313-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 10313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 10313-2023.docx", "A 10313-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 10313-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 10313-2023.docx", "A 10313-2023")</f>
         <v/>
       </c>
     </row>
@@ -3839,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3895,27 +3897,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 33330-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 33330-2023.xlsx", "A 33330-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 33330-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 33330-2023.png", "A 33330-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 33330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 33330-2023.docx", "A 33330-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 33330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 33330-2023.docx", "A 33330-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 33330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 33330-2023.docx", "A 33330-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 33330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 33330-2023.docx", "A 33330-2023")</f>
         <v/>
       </c>
     </row>
@@ -3929,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,27 +3982,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 33503-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/artfynd/A 33503-2023.xlsx", "A 33503-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 33503-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/kartor/A 33503-2023.png", "A 33503-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 33503-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomål/A 33503-2023.docx", "A 33503-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 33503-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/klagomålsmail/A 33503-2023.docx", "A 33503-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 33503-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsyn/A 33503-2023.docx", "A 33503-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 33503-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIMRA/tillsynsmail/A 33503-2023.docx", "A 33503-2023")</f>
         <v/>
       </c>
     </row>
@@ -4014,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4071,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4128,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4185,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4242,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4299,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4356,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4413,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4470,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4527,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4584,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4641,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4698,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4755,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4812,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4869,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4931,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4988,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5050,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5107,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5169,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5231,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5288,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5345,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5402,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5459,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5516,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5573,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5630,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5692,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5749,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5806,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5863,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5920,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5977,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6034,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6091,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6148,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6205,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6262,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6319,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6376,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6433,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6490,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6547,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6604,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6661,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6718,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6775,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6832,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6894,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6951,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7008,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7065,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7127,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7184,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7241,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7303,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7360,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7417,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7474,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7531,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7588,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7645,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7702,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7759,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7816,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7873,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7935,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7992,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8049,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8111,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8168,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8225,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8282,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8339,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8396,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8453,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8510,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8567,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8624,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8681,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8738,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8795,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8852,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8909,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8966,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9023,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9080,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9137,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9194,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9251,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9308,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9365,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9422,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9479,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9536,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9593,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9650,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9707,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9764,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9821,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9878,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9935,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9992,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10049,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10111,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10168,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10225,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10282,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10339,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10396,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10453,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10510,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10567,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10624,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10681,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10738,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10800,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10862,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10924,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10981,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11038,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11095,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11152,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11209,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11266,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11323,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11380,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11437,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11494,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11551,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11613,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11670,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11727,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11784,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11841,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11898,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11955,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12012,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12069,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12126,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12188,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12250,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12312,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12369,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12431,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12488,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12545,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12602,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12659,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12716,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12773,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12892,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13068,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13125,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13182,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13239,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13296,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13353,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13410,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13467,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13524,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13581,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13638,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13695,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13752,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13809,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13866,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13923,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13980,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14037,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14094,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14151,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14208,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14265,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14327,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14384,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14441,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14503,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14565,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14622,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14679,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14736,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14793,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14855,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14912,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14969,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15026,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15083,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15140,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15197,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15254,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15311,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15368,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15430,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15492,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15554,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15616,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15673,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15735,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15792,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15854,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15916,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15973,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16030,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16087,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16144,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16201,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16258,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16315,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16372,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16434,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16491,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16548,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16605,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16667,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16724,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16786,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16843,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16905,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16962,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17024,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17086,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17143,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17205,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17267,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17329,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17386,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17448,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17510,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17572,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17634,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17696,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17753,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17810,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17872,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17929,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17986,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18043,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18100,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18157,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18214,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18271,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18333,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18390,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18447,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18509,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18571,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18633,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18695,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18757,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18814,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18871,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18928,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18985,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19042,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19099,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19156,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19213,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19270,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19327,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19498,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19555,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19612,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19669,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19726,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19783,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19840,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19897,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19954,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20011,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20073,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20135,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20197,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20259,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20321,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20383,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20445,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20507,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20569,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20631,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20693,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20755,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20817,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20879,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20936,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20998,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21060,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21122,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21184,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21246,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21303,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21360,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21422,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21484,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21541,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21598,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21655,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21717,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21779,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21841,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21898,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21955,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22017,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22074,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22131,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22188,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22245,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22302,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22364,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22421,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22478,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22535,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22592,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22649,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22711,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22773,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22835,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22892,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22949,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23006,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23063,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23120,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23177,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23234,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23291,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23353,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23415,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23472,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23534,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23596,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23658,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23720,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23782,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23844,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23901,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23963,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24025,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24087,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24144,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24206,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24263,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24325,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24382,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24439,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24496,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24558,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24615,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24672,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24734,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24796,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24858,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24915,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24977,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25039,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y400"/>
+  <dimension ref="A1:Y401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="R399" s="2" t="inlineStr"/>
     </row>
-    <row r="400">
+    <row r="400" ht="15" customHeight="1">
       <c r="A400" t="inlineStr">
         <is>
           <t>A 43128-2023</t>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25092,6 +25092,63 @@
         <v>0</v>
       </c>
       <c r="R400" s="2" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>A 45723-2023</t>
+        </is>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C401" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>VÄSTERNORRLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>TIMRÅ</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>

--- a/Översikt TIMRÅ.xlsx
+++ b/Översikt TIMRÅ.xlsx
@@ -572,7 +572,7 @@
         <v>43969</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43479</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>43984</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44890</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44203</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>43479</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>43937</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>43937</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>43549</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>44854</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44988</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45159</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44306</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>44830</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>44830</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         <v>44830</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>44832</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>44860</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45142</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>43549</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43549</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>43809</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43971</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43994</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         <v>44191</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>44308</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44641</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44641</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>44719</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>45127</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43403</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>43451</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>43461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43488</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>43536</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>43536</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43549</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>43549</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>43549</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43549</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>43552</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43553</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43559</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>43584</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>43587</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43591</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>43601</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43630</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43654</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43665</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43668</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43672</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43712</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43724</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43728</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>43735</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>43739</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>43739</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
         <v>43741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>43747</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43752</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43753</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43756</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43759</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43759</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43761</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43768</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43774</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43781</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43782</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43788</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43795</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43801</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>43808</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>43815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>43842</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43850</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43850</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43850</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43851</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7994,7 +7994,7 @@
         <v>43852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>43868</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>43879</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>43879</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>43885</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>43903</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>43914</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43927</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43927</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43927</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43937</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43937</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43937</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>43937</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>43937</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>43937</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>43937</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>43937</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43937</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43937</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43937</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>43937</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>43937</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>43951</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>43955</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>43956</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>43971</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44004</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44043</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44068</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44068</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44069</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44084</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44103</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44104</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44112</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44123</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44129</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44137</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44158</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>44165</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44166</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>44166</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>44167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>44179</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>44181</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>44191</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44203</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44211</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44237</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44250</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44250</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44250</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44315</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44316</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44316</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44334</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44348</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44349</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44349</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44350</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44357</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44357</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44357</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44363</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44363</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44364</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         <v>44371</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>44371</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>44371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44378</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44382</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44384</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44393</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44417</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44420</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44440</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44447</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44453</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44462</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44467</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44469</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44469</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44491</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44494</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44511</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44517</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44524</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44526</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44530</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44530</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44531</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44536</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44537</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44539</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44557</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44557</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44557</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44557</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44558</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44566</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>44578</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44607</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44608</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>44610</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44615</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>44615</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44616</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44616</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44636</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44641</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44641</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44641</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44655</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44676</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44712</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>44721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44721</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>44728</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>44732</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>44732</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>44750</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44774</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44790</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44790</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44791</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44791</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>44791</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44798</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44798</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>44799</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44804</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44826</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44826</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44830</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44833</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44845</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44846</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44849</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44853</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44854</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>44859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44868</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44869</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44872</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44882</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44886</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44887</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44889</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44897</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>44897</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44897</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44900</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18759,7 +18759,7 @@
         <v>44901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         <v>44904</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18873,7 +18873,7 @@
         <v>44909</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44921</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44924</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44924</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>44930</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>44936</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19329,7 +19329,7 @@
         <v>44939</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19386,7 +19386,7 @@
         <v>44939</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
         <v>44943</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44952</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>44952</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19671,7 +19671,7 @@
         <v>44952</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>44952</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44966</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44966</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44966</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44973</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
         <v>44978</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20075,7 +20075,7 @@
         <v>44983</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44983</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44984</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44985</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44985</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44986</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44987</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44988</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45002</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45002</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>45002</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>45002</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45005</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
         <v>45015</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45021</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>45021</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         <v>45021</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45029</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45033</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45040</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45040</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45042</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45043</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45048</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45049</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45058</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45058</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45058</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45058</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45058</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>45058</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45068</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45079</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22366,7 +22366,7 @@
         <v>45086</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45092</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45092</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45093</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45097</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45098</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45099</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45099</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>45103</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>45103</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>45104</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45104</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45104</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45104</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45104</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45106</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45107</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>45107</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45110</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23598,7 +23598,7 @@
         <v>45110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>45112</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45117</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45117</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45117</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45119</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45119</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>45119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24089,7 +24089,7 @@
         <v>45119</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         <v>45119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45125</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45126</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45145</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45146</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45147</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45148</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45160</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>45163</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>45163</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45165</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45166</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45180</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45180</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45182</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>45195</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
